--- a/info.xlsx
+++ b/info.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documentos\Jonatan\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C2A4D-D462-41AE-A88C-DE0E2E999264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61339CC8-D421-4792-B9A9-02CB009844CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{7C09040A-E282-408B-824B-A187BCA86866}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10516" activeTab="2" xr2:uid="{7C09040A-E282-408B-824B-A187BCA86866}"/>
   </bookViews>
   <sheets>
     <sheet name="educacion" sheetId="1" r:id="rId1"/>
     <sheet name="exp" sheetId="2" r:id="rId2"/>
-    <sheet name="cursos" sheetId="3" r:id="rId3"/>
+    <sheet name="publi" sheetId="4" r:id="rId3"/>
+    <sheet name="cursos" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>degree</t>
   </si>
@@ -172,6 +171,24 @@
   </si>
   <si>
     <t>Producto disponible en: https://transformacionessociales.udp.cl/?publicaciones=soberania-alimentaria-los-alimentos-en-el-proyecto-de-la-autodeterminacion-popular</t>
+  </si>
+  <si>
+    <t>lugar</t>
+  </si>
+  <si>
+    <t>XI Congreso de sociología Pre-ALAS</t>
+  </si>
+  <si>
+    <t>Soberanía alimentaria: los alimentos en el proyecto de la autodeterminación popular</t>
+  </si>
+  <si>
+    <t>Los significados sociales de los impuestos: percepciones de la ciudadanía, desigualdades de géneroy tributación de la clase alta</t>
+  </si>
+  <si>
+    <t>Ponencia. Concepción, Chile</t>
+  </si>
+  <si>
+    <t>Publicación. Santiago, Chile</t>
   </si>
 </sst>
 </file>
@@ -557,15 +574,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -596,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -620,19 +637,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FB1538-485D-4489-B687-24AFA78D68BC}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1328125" customWidth="1"/>
+    <col min="7" max="7" width="99.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -655,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -678,7 +695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -701,7 +718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -724,7 +741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -747,7 +764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -770,7 +787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -793,7 +810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -816,7 +833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -839,7 +856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -862,7 +879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -885,7 +902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -908,7 +925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -931,7 +948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -954,7 +971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -977,7 +994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1007,18 +1024,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FE071F-21D1-4A5E-A992-A629CE499AB5}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="73.46484375" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB38738-0186-460B-BB71-DA10EBEA16FA}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1038,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1049,7 +1128,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1060,7 +1139,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documentos\Jonatan\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Jonatan\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61339CC8-D421-4792-B9A9-02CB009844CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35B586C-6D5F-4A23-B70C-E6CEF593450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10516" activeTab="2" xr2:uid="{7C09040A-E282-408B-824B-A187BCA86866}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10516" activeTab="1" xr2:uid="{7C09040A-E282-408B-824B-A187BCA86866}"/>
   </bookViews>
   <sheets>
     <sheet name="educacion" sheetId="1" r:id="rId1"/>
@@ -104,15 +104,9 @@
     <t>Ayudante de cátedra para el profesor Eduardo Godoy Sepúlveda.</t>
   </si>
   <si>
-    <t>Tesista Fondecyt</t>
-  </si>
-  <si>
     <t>2021--2022</t>
   </si>
   <si>
-    <t>Investigador en el equipo de “Nuestros Impuestos”, https://nuestrosimpuestos.cl/el-proyecto/equipo/</t>
-  </si>
-  <si>
     <t>Laboratorio de Transformaciones Sociales</t>
   </si>
   <si>
@@ -189,6 +183,12 @@
   </si>
   <si>
     <t>Publicación. Santiago, Chile</t>
+  </si>
+  <si>
+    <t>Investigador en el equipo de “Nuestros Impuestos”. Tesista inserto en Fondecyt Regular No 11181223 a cargo del académico e investigador Jorge Atria. Dentro realicé mi tesis de pregrado titulada "Tributación en Chile: percepciones y preferencias de la Clase Media y Baja sobre los impuestos". En ella se empleó metodología mixta de carácter secuencial, analizando una encuesta y realizando entrevistas.</t>
+  </si>
+  <si>
+    <t>Tesista Fondecyt Regular</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,6 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FB1538-485D-4489-B687-24AFA78D68BC}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -674,10 +675,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -692,15 +693,15 @@
         <v>2022</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -715,15 +716,15 @@
         <v>2022</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -738,7 +739,7 @@
         <v>2022</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -784,12 +785,12 @@
         <v>2022</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -804,13 +805,13 @@
         <v>2022</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -829,7 +830,7 @@
       <c r="F8">
         <v>2021</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -853,7 +854,7 @@
         <v>2021</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
@@ -899,7 +900,7 @@
         <v>2020</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
@@ -945,15 +946,15 @@
         <v>2020</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -968,15 +969,15 @@
         <v>2019</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -991,15 +992,15 @@
         <v>2019</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1014,12 +1015,12 @@
         <v>2019</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1027,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FE071F-21D1-4A5E-A992-A629CE499AB5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1042,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1053,13 +1054,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>2022</v>
@@ -1067,13 +1068,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>2019</v>
@@ -1099,7 +1100,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1119,10 +1120,10 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>2021</v>
@@ -1130,10 +1131,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>2021</v>
@@ -1141,10 +1142,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>2021</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Jonatan\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jona/Github/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35B586C-6D5F-4A23-B70C-E6CEF593450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD809C8-ECF6-504F-ACDD-3624E04BA6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10516" activeTab="1" xr2:uid="{7C09040A-E282-408B-824B-A187BCA86866}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{7C09040A-E282-408B-824B-A187BCA86866}"/>
   </bookViews>
   <sheets>
     <sheet name="educacion" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>degree</t>
   </si>
@@ -189,6 +189,33 @@
   </si>
   <si>
     <t>Tesista Fondecyt Regular</t>
+  </si>
+  <si>
+    <t>Analista de estudios cuantitativos</t>
+  </si>
+  <si>
+    <t>Encuesta Nacional de Calidad de Vida y Salud (ENCAVI) 2023</t>
+  </si>
+  <si>
+    <t>Encuesta de Clima Organizacional Fuerza Aérea de Chile 2023</t>
+  </si>
+  <si>
+    <t>Encuesta Nacional de Juventudes (ENJUV) 2025</t>
+  </si>
+  <si>
+    <t>Encuesta Bicentenario 2024</t>
+  </si>
+  <si>
+    <t>Encuesta de Percepción Cuidadana 2024 - Puerto de San Antonio</t>
+  </si>
+  <si>
+    <t>Me especializo en el trabajo con datos, abordando todo el proceso: desde la recepción, limpieza y análisis, hasta la presentación de resultados en reportes visuales. Construyo bases de datos y elaboro dashboards interactivos para clientes. También diseño y programo cuestionarios en plataformas como SurveyToGo, Survey Solutions y Alchemer. Dentro del equipo, actúo como nexo entre los distintos departamentos, facilitando el flujo de información entre el terreno, la supervisión y la coordinación de proyectos. Además, desarrollo soluciones personalizadas en R e incorporo herramientas de inteligencia artificial para mejorar los procesos internos y analíticos.</t>
+  </si>
+  <si>
+    <t>Dirección de Estudios Sociales UC</t>
+  </si>
+  <si>
+    <t>2022--Actualidad</t>
   </si>
 </sst>
 </file>
@@ -246,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,7 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,15 +601,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -614,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -636,21 +662,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FB1538-485D-4489-B687-24AFA78D68BC}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1328125" customWidth="1"/>
-    <col min="7" max="7" width="99.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="99.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -673,216 +699,204 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>2022</v>
-      </c>
-      <c r="E2">
-        <v>2022</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+      <c r="G8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
-      </c>
-      <c r="E3">
-        <v>2022</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+      <c r="G9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>2022</v>
-      </c>
-      <c r="E4">
-        <v>2022</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+      <c r="G10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>2022</v>
-      </c>
-      <c r="E5">
-        <v>2022</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
-      </c>
-      <c r="E6">
-        <v>2022</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>2021</v>
-      </c>
-      <c r="E7">
-        <v>2022</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2021</v>
-      </c>
-      <c r="E8">
-        <v>2021</v>
-      </c>
-      <c r="F8">
-        <v>2021</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>2021</v>
-      </c>
-      <c r="E9">
-        <v>2021</v>
-      </c>
-      <c r="F9">
-        <v>2021</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>2020</v>
-      </c>
-      <c r="E10">
-        <v>2020</v>
-      </c>
-      <c r="F10">
-        <v>2020</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -891,21 +905,21 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E11">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F11">
-        <v>2020</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+        <v>2022</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -914,21 +928,21 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E12">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F12">
-        <v>2020</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+        <v>2022</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -937,84 +951,222 @@
         <v>7</v>
       </c>
       <c r="D13">
+        <v>2021</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>2021</v>
+      </c>
+      <c r="E14">
+        <v>2021</v>
+      </c>
+      <c r="F14">
+        <v>2021</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>2021</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
+      </c>
+      <c r="F15">
+        <v>2021</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
         <v>2020</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>2020</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>2020</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17">
+        <v>2020</v>
+      </c>
+      <c r="F17">
+        <v>2020</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18">
+        <v>2020</v>
+      </c>
+      <c r="F18">
+        <v>2020</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19">
+        <v>2020</v>
+      </c>
+      <c r="F19">
+        <v>2020</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
         <v>2019</v>
       </c>
-      <c r="E14">
+      <c r="E20">
         <v>2019</v>
       </c>
-      <c r="F14">
+      <c r="F20">
         <v>2019</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
         <v>2019</v>
       </c>
-      <c r="E15">
+      <c r="E21">
         <v>2019</v>
       </c>
-      <c r="F15">
+      <c r="F21">
         <v>2019</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A16" t="s">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
         <v>2019</v>
       </c>
-      <c r="E16">
+      <c r="E22">
         <v>2019</v>
       </c>
-      <c r="F16">
+      <c r="F22">
         <v>2019</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1032,13 +1184,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.46484375" customWidth="1"/>
-    <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.5" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1066,7 +1218,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1092,13 +1244,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1118,7 +1270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1129,7 +1281,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1140,7 +1292,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
